--- a/Planilha Financeira.xlsx
+++ b/Planilha Financeira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellihas\Documents\Elias\Cursos\Excel com IA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01377DC-DAD2-4763-824B-F24BAA7546A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96103D3-8723-4B31-8549-0A7DD32B83B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="161" xr2:uid="{D63472A4-8300-4934-9C87-0EC792DCF89D}"/>
   </bookViews>
@@ -704,45 +704,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -766,9 +727,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -2263,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A0B514-4758-45B7-9E7C-BEE6ADE55698}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2295,28 +2295,28 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="50">
+      <c r="C12" s="47"/>
+      <c r="D12" s="37">
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="51">
+      <c r="C13" s="49"/>
+      <c r="D13" s="38">
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="20">
         <f>D12*30%</f>
         <v>600</v>
@@ -2324,54 +2324,54 @@
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="52">
+      <c r="C17" s="47"/>
+      <c r="D17" s="39">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="53">
+      <c r="C18" s="49"/>
+      <c r="D18" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="54">
+      <c r="C19" s="49"/>
+      <c r="D19" s="41">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="18">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>16755.382799697527</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="19">
         <f>patrimonio*rendimento_carteira</f>
         <v>165.87828971700554</v>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="44"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="8" t="s">
         <v>12</v>
       </c>
@@ -2616,6 +2616,7 @@
     <row r="68" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -2652,8 +2653,9 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" hidden="1"/>
-    <col min="7" max="7" width="15.42578125" hidden="1"/>
+    <col min="5" max="6" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -2685,7 +2687,7 @@
       <c r="D2" s="4">
         <v>0.3</v>
       </c>
-      <c r="H2" s="55"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
@@ -2701,9 +2703,9 @@
       <c r="D3" s="4">
         <v>0.5</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
@@ -2950,11 +2952,32 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -3209,27 +3232,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C32110DE-3D77-470C-9CED-65521C30E3F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D0D6DD-E6DB-45C8-8F90-E314C090C085}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BBC473-00BC-48E4-BFA3-FE8E2B1F0015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3246,23 +3268,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D0D6DD-E6DB-45C8-8F90-E314C090C085}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C32110DE-3D77-470C-9CED-65521C30E3F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>